--- a/03_設計/非機能要求一覧(第4反復) _7.xlsx
+++ b/03_設計/非機能要求一覧(第4反復) _7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{737890E8-B9E1-4EF0-AA88-D07B25A483F4}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29CBD207-A2CA-4CE9-8B86-A4235240149B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>MUST</t>
+  </si>
+  <si>
+    <t>サブクラスで実装する</t>
   </si>
   <si>
     <t>N04-03</t>
@@ -1127,393 +1130,393 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="257" width="3.5703125" style="1"/>
-    <col min="258" max="258" width="1.5703125" style="1" customWidth="1"/>
-    <col min="259" max="259" width="5.5703125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="8.5703125" style="1" customWidth="1"/>
-    <col min="261" max="261" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="513" width="3.5703125" style="1"/>
-    <col min="514" max="514" width="1.5703125" style="1" customWidth="1"/>
-    <col min="515" max="515" width="5.5703125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="8.5703125" style="1" customWidth="1"/>
-    <col min="517" max="517" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="769" width="3.5703125" style="1"/>
-    <col min="770" max="770" width="1.5703125" style="1" customWidth="1"/>
-    <col min="771" max="771" width="5.5703125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="8.5703125" style="1" customWidth="1"/>
-    <col min="773" max="773" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="1025" width="3.5703125" style="1"/>
-    <col min="1026" max="1026" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1281" width="3.5703125" style="1"/>
-    <col min="1282" max="1282" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1537" width="3.5703125" style="1"/>
-    <col min="1538" max="1538" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1793" width="3.5703125" style="1"/>
-    <col min="1794" max="1794" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2049" width="3.5703125" style="1"/>
-    <col min="2050" max="2050" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2305" width="3.5703125" style="1"/>
-    <col min="2306" max="2306" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2561" width="3.5703125" style="1"/>
-    <col min="2562" max="2562" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2817" width="3.5703125" style="1"/>
-    <col min="2818" max="2818" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3073" width="3.5703125" style="1"/>
-    <col min="3074" max="3074" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3329" width="3.5703125" style="1"/>
-    <col min="3330" max="3330" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3585" width="3.5703125" style="1"/>
-    <col min="3586" max="3586" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3841" width="3.5703125" style="1"/>
-    <col min="3842" max="3842" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4097" width="3.5703125" style="1"/>
-    <col min="4098" max="4098" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4353" width="3.5703125" style="1"/>
-    <col min="4354" max="4354" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4609" width="3.5703125" style="1"/>
-    <col min="4610" max="4610" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4865" width="3.5703125" style="1"/>
-    <col min="4866" max="4866" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5121" width="3.5703125" style="1"/>
-    <col min="5122" max="5122" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5377" width="3.5703125" style="1"/>
-    <col min="5378" max="5378" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5633" width="3.5703125" style="1"/>
-    <col min="5634" max="5634" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5889" width="3.5703125" style="1"/>
-    <col min="5890" max="5890" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6145" width="3.5703125" style="1"/>
-    <col min="6146" max="6146" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6401" width="3.5703125" style="1"/>
-    <col min="6402" max="6402" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6657" width="3.5703125" style="1"/>
-    <col min="6658" max="6658" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6913" width="3.5703125" style="1"/>
-    <col min="6914" max="6914" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7169" width="3.5703125" style="1"/>
-    <col min="7170" max="7170" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7425" width="3.5703125" style="1"/>
-    <col min="7426" max="7426" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7681" width="3.5703125" style="1"/>
-    <col min="7682" max="7682" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7937" width="3.5703125" style="1"/>
-    <col min="7938" max="7938" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8193" width="3.5703125" style="1"/>
-    <col min="8194" max="8194" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8449" width="3.5703125" style="1"/>
-    <col min="8450" max="8450" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8705" width="3.5703125" style="1"/>
-    <col min="8706" max="8706" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8961" width="3.5703125" style="1"/>
-    <col min="8962" max="8962" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9217" width="3.5703125" style="1"/>
-    <col min="9218" max="9218" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9473" width="3.5703125" style="1"/>
-    <col min="9474" max="9474" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9729" width="3.5703125" style="1"/>
-    <col min="9730" max="9730" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9985" width="3.5703125" style="1"/>
-    <col min="9986" max="9986" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10241" width="3.5703125" style="1"/>
-    <col min="10242" max="10242" width="1.5703125" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10497" width="3.5703125" style="1"/>
-    <col min="10498" max="10498" width="1.5703125" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10753" width="3.5703125" style="1"/>
-    <col min="10754" max="10754" width="1.5703125" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11009" width="3.5703125" style="1"/>
-    <col min="11010" max="11010" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11265" width="3.5703125" style="1"/>
-    <col min="11266" max="11266" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11521" width="3.5703125" style="1"/>
-    <col min="11522" max="11522" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11777" width="3.5703125" style="1"/>
-    <col min="11778" max="11778" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12033" width="3.5703125" style="1"/>
-    <col min="12034" max="12034" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12289" width="3.5703125" style="1"/>
-    <col min="12290" max="12290" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12545" width="3.5703125" style="1"/>
-    <col min="12546" max="12546" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12801" width="3.5703125" style="1"/>
-    <col min="12802" max="12802" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13057" width="3.5703125" style="1"/>
-    <col min="13058" max="13058" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13313" width="3.5703125" style="1"/>
-    <col min="13314" max="13314" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13569" width="3.5703125" style="1"/>
-    <col min="13570" max="13570" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13825" width="3.5703125" style="1"/>
-    <col min="13826" max="13826" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14081" width="3.5703125" style="1"/>
-    <col min="14082" max="14082" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14337" width="3.5703125" style="1"/>
-    <col min="14338" max="14338" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14593" width="3.5703125" style="1"/>
-    <col min="14594" max="14594" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14849" width="3.5703125" style="1"/>
-    <col min="14850" max="14850" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15105" width="3.5703125" style="1"/>
-    <col min="15106" max="15106" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15361" width="3.5703125" style="1"/>
-    <col min="15362" max="15362" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15617" width="3.5703125" style="1"/>
-    <col min="15618" max="15618" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15873" width="3.5703125" style="1"/>
-    <col min="15874" max="15874" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16129" width="3.5703125" style="1"/>
-    <col min="16130" max="16130" width="1.5703125" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="5.5703125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="8.5703125" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="3.5703125" style="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="257" width="3.625" style="1"/>
+    <col min="258" max="258" width="1.625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="5.625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="8.625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="513" width="3.625" style="1"/>
+    <col min="514" max="514" width="1.625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="5.625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="8.625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="769" width="3.625" style="1"/>
+    <col min="770" max="770" width="1.625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="5.625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="8.625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="1025" width="3.625" style="1"/>
+    <col min="1026" max="1026" width="1.625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="8.625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1281" width="3.625" style="1"/>
+    <col min="1282" max="1282" width="1.625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="8.625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1537" width="3.625" style="1"/>
+    <col min="1538" max="1538" width="1.625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="8.625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1793" width="3.625" style="1"/>
+    <col min="1794" max="1794" width="1.625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="8.625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2049" width="3.625" style="1"/>
+    <col min="2050" max="2050" width="1.625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="8.625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2305" width="3.625" style="1"/>
+    <col min="2306" max="2306" width="1.625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="8.625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2561" width="3.625" style="1"/>
+    <col min="2562" max="2562" width="1.625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="8.625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2817" width="3.625" style="1"/>
+    <col min="2818" max="2818" width="1.625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="8.625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3073" width="3.625" style="1"/>
+    <col min="3074" max="3074" width="1.625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="8.625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3329" width="3.625" style="1"/>
+    <col min="3330" max="3330" width="1.625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="8.625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3585" width="3.625" style="1"/>
+    <col min="3586" max="3586" width="1.625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="8.625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3841" width="3.625" style="1"/>
+    <col min="3842" max="3842" width="1.625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="8.625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4097" width="3.625" style="1"/>
+    <col min="4098" max="4098" width="1.625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="8.625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4353" width="3.625" style="1"/>
+    <col min="4354" max="4354" width="1.625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="8.625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4609" width="3.625" style="1"/>
+    <col min="4610" max="4610" width="1.625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="8.625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4865" width="3.625" style="1"/>
+    <col min="4866" max="4866" width="1.625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="8.625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5121" width="3.625" style="1"/>
+    <col min="5122" max="5122" width="1.625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="8.625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5377" width="3.625" style="1"/>
+    <col min="5378" max="5378" width="1.625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="8.625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5633" width="3.625" style="1"/>
+    <col min="5634" max="5634" width="1.625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="8.625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5889" width="3.625" style="1"/>
+    <col min="5890" max="5890" width="1.625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="8.625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6145" width="3.625" style="1"/>
+    <col min="6146" max="6146" width="1.625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="8.625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6401" width="3.625" style="1"/>
+    <col min="6402" max="6402" width="1.625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="8.625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6657" width="3.625" style="1"/>
+    <col min="6658" max="6658" width="1.625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="8.625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6913" width="3.625" style="1"/>
+    <col min="6914" max="6914" width="1.625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="8.625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7169" width="3.625" style="1"/>
+    <col min="7170" max="7170" width="1.625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="8.625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7425" width="3.625" style="1"/>
+    <col min="7426" max="7426" width="1.625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="8.625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7681" width="3.625" style="1"/>
+    <col min="7682" max="7682" width="1.625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="8.625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7937" width="3.625" style="1"/>
+    <col min="7938" max="7938" width="1.625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="8.625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8193" width="3.625" style="1"/>
+    <col min="8194" max="8194" width="1.625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="8.625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8449" width="3.625" style="1"/>
+    <col min="8450" max="8450" width="1.625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="8.625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8705" width="3.625" style="1"/>
+    <col min="8706" max="8706" width="1.625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="8.625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8961" width="3.625" style="1"/>
+    <col min="8962" max="8962" width="1.625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="8.625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9217" width="3.625" style="1"/>
+    <col min="9218" max="9218" width="1.625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="8.625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9473" width="3.625" style="1"/>
+    <col min="9474" max="9474" width="1.625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="8.625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9729" width="3.625" style="1"/>
+    <col min="9730" max="9730" width="1.625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="8.625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9985" width="3.625" style="1"/>
+    <col min="9986" max="9986" width="1.625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="8.625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10241" width="3.625" style="1"/>
+    <col min="10242" max="10242" width="1.625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="8.625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10497" width="3.625" style="1"/>
+    <col min="10498" max="10498" width="1.625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="8.625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10753" width="3.625" style="1"/>
+    <col min="10754" max="10754" width="1.625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="8.625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11009" width="3.625" style="1"/>
+    <col min="11010" max="11010" width="1.625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="8.625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11265" width="3.625" style="1"/>
+    <col min="11266" max="11266" width="1.625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="8.625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11521" width="3.625" style="1"/>
+    <col min="11522" max="11522" width="1.625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="8.625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11777" width="3.625" style="1"/>
+    <col min="11778" max="11778" width="1.625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="8.625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12033" width="3.625" style="1"/>
+    <col min="12034" max="12034" width="1.625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="8.625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12289" width="3.625" style="1"/>
+    <col min="12290" max="12290" width="1.625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="8.625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12545" width="3.625" style="1"/>
+    <col min="12546" max="12546" width="1.625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="8.625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12801" width="3.625" style="1"/>
+    <col min="12802" max="12802" width="1.625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="8.625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13057" width="3.625" style="1"/>
+    <col min="13058" max="13058" width="1.625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="8.625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13313" width="3.625" style="1"/>
+    <col min="13314" max="13314" width="1.625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="8.625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13569" width="3.625" style="1"/>
+    <col min="13570" max="13570" width="1.625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="8.625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13825" width="3.625" style="1"/>
+    <col min="13826" max="13826" width="1.625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="8.625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14081" width="3.625" style="1"/>
+    <col min="14082" max="14082" width="1.625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="8.625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14337" width="3.625" style="1"/>
+    <col min="14338" max="14338" width="1.625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="8.625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14593" width="3.625" style="1"/>
+    <col min="14594" max="14594" width="1.625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="8.625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14849" width="3.625" style="1"/>
+    <col min="14850" max="14850" width="1.625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="8.625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15105" width="3.625" style="1"/>
+    <col min="15106" max="15106" width="1.625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="8.625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15361" width="3.625" style="1"/>
+    <col min="15362" max="15362" width="1.625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="8.625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15617" width="3.625" style="1"/>
+    <col min="15618" max="15618" width="1.625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="8.625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15873" width="3.625" style="1"/>
+    <col min="15874" max="15874" width="1.625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="8.625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16129" width="3.625" style="1"/>
+    <col min="16130" max="16130" width="1.625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="8.625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1"/>
@@ -1694,396 +1697,396 @@
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="257" width="3.5703125" style="1"/>
-    <col min="258" max="258" width="1.5703125" style="1" customWidth="1"/>
-    <col min="259" max="259" width="5.5703125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="8.5703125" style="1" customWidth="1"/>
-    <col min="261" max="261" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="513" width="3.5703125" style="1"/>
-    <col min="514" max="514" width="1.5703125" style="1" customWidth="1"/>
-    <col min="515" max="515" width="5.5703125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="8.5703125" style="1" customWidth="1"/>
-    <col min="517" max="517" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="769" width="3.5703125" style="1"/>
-    <col min="770" max="770" width="1.5703125" style="1" customWidth="1"/>
-    <col min="771" max="771" width="5.5703125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="8.5703125" style="1" customWidth="1"/>
-    <col min="773" max="773" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="1025" width="3.5703125" style="1"/>
-    <col min="1026" max="1026" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1281" width="3.5703125" style="1"/>
-    <col min="1282" max="1282" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1537" width="3.5703125" style="1"/>
-    <col min="1538" max="1538" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1793" width="3.5703125" style="1"/>
-    <col min="1794" max="1794" width="1.5703125" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="8.5703125" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2049" width="3.5703125" style="1"/>
-    <col min="2050" max="2050" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2305" width="3.5703125" style="1"/>
-    <col min="2306" max="2306" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2561" width="3.5703125" style="1"/>
-    <col min="2562" max="2562" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2817" width="3.5703125" style="1"/>
-    <col min="2818" max="2818" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3073" width="3.5703125" style="1"/>
-    <col min="3074" max="3074" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3329" width="3.5703125" style="1"/>
-    <col min="3330" max="3330" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3585" width="3.5703125" style="1"/>
-    <col min="3586" max="3586" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3841" width="3.5703125" style="1"/>
-    <col min="3842" max="3842" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4097" width="3.5703125" style="1"/>
-    <col min="4098" max="4098" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4353" width="3.5703125" style="1"/>
-    <col min="4354" max="4354" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4609" width="3.5703125" style="1"/>
-    <col min="4610" max="4610" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4865" width="3.5703125" style="1"/>
-    <col min="4866" max="4866" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5121" width="3.5703125" style="1"/>
-    <col min="5122" max="5122" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5377" width="3.5703125" style="1"/>
-    <col min="5378" max="5378" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5633" width="3.5703125" style="1"/>
-    <col min="5634" max="5634" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5889" width="3.5703125" style="1"/>
-    <col min="5890" max="5890" width="1.5703125" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6145" width="3.5703125" style="1"/>
-    <col min="6146" max="6146" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6401" width="3.5703125" style="1"/>
-    <col min="6402" max="6402" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6657" width="3.5703125" style="1"/>
-    <col min="6658" max="6658" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6913" width="3.5703125" style="1"/>
-    <col min="6914" max="6914" width="1.5703125" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7169" width="3.5703125" style="1"/>
-    <col min="7170" max="7170" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7425" width="3.5703125" style="1"/>
-    <col min="7426" max="7426" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7681" width="3.5703125" style="1"/>
-    <col min="7682" max="7682" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7937" width="3.5703125" style="1"/>
-    <col min="7938" max="7938" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8193" width="3.5703125" style="1"/>
-    <col min="8194" max="8194" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8449" width="3.5703125" style="1"/>
-    <col min="8450" max="8450" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8705" width="3.5703125" style="1"/>
-    <col min="8706" max="8706" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8961" width="3.5703125" style="1"/>
-    <col min="8962" max="8962" width="1.5703125" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9217" width="3.5703125" style="1"/>
-    <col min="9218" max="9218" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9473" width="3.5703125" style="1"/>
-    <col min="9474" max="9474" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9729" width="3.5703125" style="1"/>
-    <col min="9730" max="9730" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9985" width="3.5703125" style="1"/>
-    <col min="9986" max="9986" width="1.5703125" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10241" width="3.5703125" style="1"/>
-    <col min="10242" max="10242" width="1.5703125" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10497" width="3.5703125" style="1"/>
-    <col min="10498" max="10498" width="1.5703125" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10753" width="3.5703125" style="1"/>
-    <col min="10754" max="10754" width="1.5703125" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11009" width="3.5703125" style="1"/>
-    <col min="11010" max="11010" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11265" width="3.5703125" style="1"/>
-    <col min="11266" max="11266" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11521" width="3.5703125" style="1"/>
-    <col min="11522" max="11522" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11777" width="3.5703125" style="1"/>
-    <col min="11778" max="11778" width="1.5703125" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12033" width="3.5703125" style="1"/>
-    <col min="12034" max="12034" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12289" width="3.5703125" style="1"/>
-    <col min="12290" max="12290" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12545" width="3.5703125" style="1"/>
-    <col min="12546" max="12546" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12801" width="3.5703125" style="1"/>
-    <col min="12802" max="12802" width="1.5703125" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13057" width="3.5703125" style="1"/>
-    <col min="13058" max="13058" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13313" width="3.5703125" style="1"/>
-    <col min="13314" max="13314" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13569" width="3.5703125" style="1"/>
-    <col min="13570" max="13570" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13825" width="3.5703125" style="1"/>
-    <col min="13826" max="13826" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14081" width="3.5703125" style="1"/>
-    <col min="14082" max="14082" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14337" width="3.5703125" style="1"/>
-    <col min="14338" max="14338" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14593" width="3.5703125" style="1"/>
-    <col min="14594" max="14594" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14849" width="3.5703125" style="1"/>
-    <col min="14850" max="14850" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15105" width="3.5703125" style="1"/>
-    <col min="15106" max="15106" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15361" width="3.5703125" style="1"/>
-    <col min="15362" max="15362" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15617" width="3.5703125" style="1"/>
-    <col min="15618" max="15618" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15873" width="3.5703125" style="1"/>
-    <col min="15874" max="15874" width="1.5703125" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16129" width="3.5703125" style="1"/>
-    <col min="16130" max="16130" width="1.5703125" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="5.5703125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="8.5703125" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="3.5703125" style="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="257" width="3.625" style="1"/>
+    <col min="258" max="258" width="1.625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="5.625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="8.625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="513" width="3.625" style="1"/>
+    <col min="514" max="514" width="1.625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="5.625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="8.625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="769" width="3.625" style="1"/>
+    <col min="770" max="770" width="1.625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="5.625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="8.625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="1025" width="3.625" style="1"/>
+    <col min="1026" max="1026" width="1.625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="8.625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1281" width="3.625" style="1"/>
+    <col min="1282" max="1282" width="1.625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="8.625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1537" width="3.625" style="1"/>
+    <col min="1538" max="1538" width="1.625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="8.625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1793" width="3.625" style="1"/>
+    <col min="1794" max="1794" width="1.625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="8.625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2049" width="3.625" style="1"/>
+    <col min="2050" max="2050" width="1.625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="8.625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2305" width="3.625" style="1"/>
+    <col min="2306" max="2306" width="1.625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="8.625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2561" width="3.625" style="1"/>
+    <col min="2562" max="2562" width="1.625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="8.625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2817" width="3.625" style="1"/>
+    <col min="2818" max="2818" width="1.625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="8.625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3073" width="3.625" style="1"/>
+    <col min="3074" max="3074" width="1.625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="8.625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3329" width="3.625" style="1"/>
+    <col min="3330" max="3330" width="1.625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="8.625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3585" width="3.625" style="1"/>
+    <col min="3586" max="3586" width="1.625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="8.625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3841" width="3.625" style="1"/>
+    <col min="3842" max="3842" width="1.625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="8.625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4097" width="3.625" style="1"/>
+    <col min="4098" max="4098" width="1.625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="8.625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4353" width="3.625" style="1"/>
+    <col min="4354" max="4354" width="1.625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="8.625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4609" width="3.625" style="1"/>
+    <col min="4610" max="4610" width="1.625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="8.625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4865" width="3.625" style="1"/>
+    <col min="4866" max="4866" width="1.625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="8.625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5121" width="3.625" style="1"/>
+    <col min="5122" max="5122" width="1.625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="8.625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5377" width="3.625" style="1"/>
+    <col min="5378" max="5378" width="1.625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="8.625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5633" width="3.625" style="1"/>
+    <col min="5634" max="5634" width="1.625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="8.625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5889" width="3.625" style="1"/>
+    <col min="5890" max="5890" width="1.625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="8.625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6145" width="3.625" style="1"/>
+    <col min="6146" max="6146" width="1.625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="8.625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6401" width="3.625" style="1"/>
+    <col min="6402" max="6402" width="1.625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="8.625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6657" width="3.625" style="1"/>
+    <col min="6658" max="6658" width="1.625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="8.625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6913" width="3.625" style="1"/>
+    <col min="6914" max="6914" width="1.625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="8.625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7169" width="3.625" style="1"/>
+    <col min="7170" max="7170" width="1.625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="8.625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7425" width="3.625" style="1"/>
+    <col min="7426" max="7426" width="1.625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="8.625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7681" width="3.625" style="1"/>
+    <col min="7682" max="7682" width="1.625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="8.625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7937" width="3.625" style="1"/>
+    <col min="7938" max="7938" width="1.625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="8.625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8193" width="3.625" style="1"/>
+    <col min="8194" max="8194" width="1.625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="8.625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8449" width="3.625" style="1"/>
+    <col min="8450" max="8450" width="1.625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="8.625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8705" width="3.625" style="1"/>
+    <col min="8706" max="8706" width="1.625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="8.625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8961" width="3.625" style="1"/>
+    <col min="8962" max="8962" width="1.625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="8.625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9217" width="3.625" style="1"/>
+    <col min="9218" max="9218" width="1.625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="8.625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9473" width="3.625" style="1"/>
+    <col min="9474" max="9474" width="1.625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="8.625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9729" width="3.625" style="1"/>
+    <col min="9730" max="9730" width="1.625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="8.625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9985" width="3.625" style="1"/>
+    <col min="9986" max="9986" width="1.625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="8.625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10241" width="3.625" style="1"/>
+    <col min="10242" max="10242" width="1.625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="8.625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10497" width="3.625" style="1"/>
+    <col min="10498" max="10498" width="1.625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="8.625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10753" width="3.625" style="1"/>
+    <col min="10754" max="10754" width="1.625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="8.625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11009" width="3.625" style="1"/>
+    <col min="11010" max="11010" width="1.625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="8.625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11265" width="3.625" style="1"/>
+    <col min="11266" max="11266" width="1.625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="8.625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11521" width="3.625" style="1"/>
+    <col min="11522" max="11522" width="1.625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="8.625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11777" width="3.625" style="1"/>
+    <col min="11778" max="11778" width="1.625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="8.625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12033" width="3.625" style="1"/>
+    <col min="12034" max="12034" width="1.625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="8.625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12289" width="3.625" style="1"/>
+    <col min="12290" max="12290" width="1.625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="8.625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12545" width="3.625" style="1"/>
+    <col min="12546" max="12546" width="1.625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="8.625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12801" width="3.625" style="1"/>
+    <col min="12802" max="12802" width="1.625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="8.625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13057" width="3.625" style="1"/>
+    <col min="13058" max="13058" width="1.625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="8.625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13313" width="3.625" style="1"/>
+    <col min="13314" max="13314" width="1.625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="8.625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13569" width="3.625" style="1"/>
+    <col min="13570" max="13570" width="1.625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="8.625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13825" width="3.625" style="1"/>
+    <col min="13826" max="13826" width="1.625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="8.625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14081" width="3.625" style="1"/>
+    <col min="14082" max="14082" width="1.625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="8.625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14337" width="3.625" style="1"/>
+    <col min="14338" max="14338" width="1.625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="8.625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14593" width="3.625" style="1"/>
+    <col min="14594" max="14594" width="1.625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="8.625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14849" width="3.625" style="1"/>
+    <col min="14850" max="14850" width="1.625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="8.625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15105" width="3.625" style="1"/>
+    <col min="15106" max="15106" width="1.625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="8.625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15361" width="3.625" style="1"/>
+    <col min="15362" max="15362" width="1.625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="8.625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15617" width="3.625" style="1"/>
+    <col min="15618" max="15618" width="1.625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="8.625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15873" width="3.625" style="1"/>
+    <col min="15874" max="15874" width="1.625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="8.625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16129" width="3.625" style="1"/>
+    <col min="16130" max="16130" width="1.625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="8.625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1"/>
@@ -2253,7 +2256,9 @@
       <c r="E21" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="18.75" customHeight="1">
       <c r="B22" s="11"/>
@@ -2267,7 +2272,7 @@
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="25"/>
@@ -2296,7 +2301,7 @@
     <row r="26" spans="2:6" ht="12">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="25"/>
@@ -2305,7 +2310,7 @@
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="25"/>
@@ -2331,12 +2336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2520,7 +2519,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2529,14 +2528,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}"/>
 </file>